--- a/target/classes/com/qa/vib/testdata/KiranTestData.xlsx
+++ b/target/classes/com/qa/vib/testdata/KiranTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="LoginData" sheetId="1" r:id="rId1"/>
@@ -17,14 +17,17 @@
     <sheet name="AMLDetailsData" sheetId="9" r:id="rId8"/>
     <sheet name="TransactionTypeData" sheetId="13" r:id="rId9"/>
     <sheet name="MoneyTypeData" sheetId="11" r:id="rId10"/>
-    <sheet name="Sheet1" sheetId="12" r:id="rId11"/>
+    <sheet name="MailManagementData" sheetId="14" r:id="rId11"/>
+    <sheet name="OldOTPData" sheetId="15" r:id="rId12"/>
+    <sheet name="PasswordPolicyData" sheetId="16" r:id="rId13"/>
+    <sheet name="Sheet4" sheetId="17" r:id="rId14"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="123">
   <si>
     <t>username</t>
   </si>
@@ -287,15 +290,6 @@
     <t>AML Type</t>
   </si>
   <si>
-    <t xml:space="preserve">Per Customer Transaction  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Per City Customer Transaction </t>
-  </si>
-  <si>
-    <t>Per State Customer Transaction</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
@@ -336,13 +330,87 @@
   </si>
   <si>
     <t>Electronic Money</t>
+  </si>
+  <si>
+    <t>ServiceType</t>
+  </si>
+  <si>
+    <t>MobileNumber</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>URLpath</t>
+  </si>
+  <si>
+    <t>OldOTP</t>
+  </si>
+  <si>
+    <t>PasswordPolicyName</t>
+  </si>
+  <si>
+    <t>PolicyDetails</t>
+  </si>
+  <si>
+    <t>NotificationPriority</t>
+  </si>
+  <si>
+    <t>ValidityDate</t>
+  </si>
+  <si>
+    <t>Password length and formation</t>
+  </si>
+  <si>
+    <t>Policies require a minimum password length. Eight characters is typical but may not be appropriate. Longer passwords are generally more secure, but some systems impose a maximum length for compatibility with legacy systems.  Some policies suggest or impose requirements on what type of password a user can choose, such as:
+*the use of both upper-case and lower-case letters (case sensitivity)
+*inclusion of one or more numerical digits
+*inclusion of special characters, such as @, #, $
+*prohibition of words found in a password blacklist
+*prohibition of words found in the user's personal information
+*prohibition of use of company name or an abbreviation
+*prohibition of passwords that match the format of calendar dates, license plate numbers, telephone numbers, or other common numbers
+Other systems create the password for the users or let the user select one of a limited number of displayed choices.</t>
+  </si>
+  <si>
+    <t>Password blacklists</t>
+  </si>
+  <si>
+    <t>Password blacklists are lists of passwords that are always blocked from use. Blacklists contain passwords constructed of character combinations that otherwise meet company policy, but should no longer be used because they have been deemed insecure for one or more reasons, such as being easily guessed, following a common pattern, or public disclosure from previous data breaches. Common examples are Password1, Qwerty123, or Qaz123wsx.</t>
+  </si>
+  <si>
+    <t>Password duration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some policies require users to change passwords periodically, often every 90 or 180 days. The benefit of password expiration, however, is debatable. Systems that implement such policies sometimes prevent users from picking a password too close to a previous selection.                                                                                                                                                                                   This policy can often backfire. Some users find it hard to devise "good" passwords that are also easy to remember, so if people are required to choose many passwords because they have to change them often, they end up using much weaker passwords; the policy also encourages users to write passwords down. Also, if the policy prevents a user from repeating a recent password, this requires that there is a database in existence of everyone's recent passwords </t>
+  </si>
+  <si>
+    <t>Sanction</t>
+  </si>
+  <si>
+    <t>Password policies may include progressive sanctions beginning with warnings and ending with possible loss of computer privileges or job termination. Where confidentiality is mandated by law, e.g. with classified information, a violation of password policy could be a criminal offense[citation needed]. Some[who?] consider a convincing explanation of the importance of security to be more effective than threats of sanctions</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>ASCII characters as well as the space character</t>
+  </si>
+  <si>
+    <t>Per Customer Transaction in Town</t>
+  </si>
+  <si>
+    <t>Per Customer Transaction in City</t>
+  </si>
+  <si>
+    <t>Per Customer Transaction in MetroCity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -405,6 +473,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -454,7 +529,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -507,6 +582,29 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -858,9 +956,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="20">
-        <v>7020305058</v>
-      </c>
+      <c r="A5" s="20"/>
       <c r="B5" s="20">
         <v>1234</v>
       </c>
@@ -894,12 +990,12 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -910,112 +1006,378 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A4"/>
+      <selection sqref="A1:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="46.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="54.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>5</v>
+      <c r="A1" s="21" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>24</v>
-      </c>
+      <c r="A2" s="22"/>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>6</v>
-      </c>
+      <c r="A3" s="22"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="A4" s="22"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>8</v>
-      </c>
+      <c r="A5" s="22"/>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="A6" s="22"/>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="A7" s="22"/>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A8" s="22"/>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>12</v>
-      </c>
+      <c r="A9" s="22"/>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>13</v>
-      </c>
+      <c r="A10" s="22"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>23</v>
+      <c r="A11" s="22"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="82.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="25"/>
+    </row>
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="27"/>
+    </row>
+    <row r="4" spans="1:4" ht="79.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="27"/>
+    </row>
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.85546875" customWidth="1"/>
+    <col min="2" max="2" width="77.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1080,10 +1442,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1117,6 +1479,86 @@
         <v>7</v>
       </c>
     </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1128,7 +1570,7 @@
   <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:A22"/>
+      <selection activeCell="A2" sqref="A2:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1659,14 +2101,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J2" sqref="A1:J4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="9" width="26.28515625" style="12" customWidth="1"/>
-    <col min="10" max="10" width="31.5703125" style="12" customWidth="1"/>
+    <col min="10" max="10" width="33.42578125" style="12" customWidth="1"/>
     <col min="11" max="14" width="11.42578125" style="11" customWidth="1"/>
     <col min="15" max="16384" width="9.140625" style="11"/>
   </cols>
@@ -1705,34 +2147,34 @@
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="F2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>93</v>
-      </c>
       <c r="J2" s="14" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1763,8 +2205,8 @@
       <c r="I3" s="3">
         <v>180000</v>
       </c>
-      <c r="J3" s="7" t="s">
-        <v>88</v>
+      <c r="J3" s="14" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1795,8 +2237,8 @@
       <c r="I4" s="3">
         <v>1800000</v>
       </c>
-      <c r="J4" s="7" t="s">
-        <v>89</v>
+      <c r="J4" s="14" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1821,7 +2263,7 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:A8"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1837,37 +2279,37 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
